--- a/resources/experiment 1/metrics/MAPE/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Infarto de Miocardio.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08559727483388413</v>
+        <v>0.08559727483388412</v>
       </c>
       <c r="C2" t="n">
         <v>0.08559727483388413</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02089796496938708</v>
+        <v>0.02253158136884355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02089796496938708</v>
+        <v>0.02284867209292149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02089796496938708</v>
+        <v>0.02448936403410701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01783336003316302</v>
+        <v>0.02346950018689528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01783336003316302</v>
+        <v>0.0228719925136173</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01783336003316302</v>
+        <v>0.02290051981985665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0327341921847366</v>
+        <v>0.01957789447367292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0327341921847366</v>
+        <v>0.0186877691308285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0327341921847366</v>
+        <v>0.01734001657310653</v>
       </c>
     </row>
   </sheetData>
